--- a/Final Project.xlsx
+++ b/Final Project.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dutch\Documents\WashU Data Bootcamp\Final_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dutch\Documents\WashU Data Bootcamp\Final_Project\Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219EBCEA-6F0E-4D3E-9E15-6E3B048F1C31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84CAFD7-3D18-456A-9A80-DB7C4143F210}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C2D5E119-BDBE-4D0E-8A25-BB7BC0F355EF}"/>
   </bookViews>
@@ -683,6 +683,9 @@
       <c:pivotFmt>
         <c:idx val="8"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -769,6 +772,9 @@
       <c:pivotFmt>
         <c:idx val="10"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1065,6 +1071,9 @@
       <c:pivotFmt>
         <c:idx val="19"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1121,6 +1130,9 @@
       <c:pivotFmt>
         <c:idx val="20"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1148,6 +1160,9 @@
       <c:pivotFmt>
         <c:idx val="21"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1231,6 +1246,9 @@
       <c:pivotFmt>
         <c:idx val="23"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1258,6 +1276,9 @@
       <c:pivotFmt>
         <c:idx val="24"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1285,6 +1306,9 @@
       <c:pivotFmt>
         <c:idx val="25"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1312,6 +1336,9 @@
       <c:pivotFmt>
         <c:idx val="26"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1395,6 +1422,9 @@
       <c:pivotFmt>
         <c:idx val="28"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1422,6 +1452,9 @@
       <c:pivotFmt>
         <c:idx val="29"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7893,10 +7926,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AFE5C2-7293-4C6A-9133-8E4C463338B6}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S542"/>
+  <dimension ref="A1:S372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E378" sqref="E378"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20298,7 +20331,7 @@
         <v>24</v>
       </c>
       <c r="D333" t="str">
-        <f t="shared" ref="D333:D396" si="10">B333&amp;" -&gt; "&amp;C333</f>
+        <f t="shared" ref="D333:D372" si="10">B333&amp;" -&gt; "&amp;C333</f>
         <v>AMS -&gt; ATL</v>
       </c>
       <c r="E333" s="1">
@@ -21805,1007 +21838,6 @@
       </c>
       <c r="K372" s="5">
         <v>1066.6803865940146</v>
-      </c>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C377">
-        <v>165</v>
-      </c>
-      <c r="D377">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C378">
-        <f>C377-1</f>
-        <v>164</v>
-      </c>
-      <c r="D378">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C379">
-        <f t="shared" ref="C379:C442" si="12">C378-1</f>
-        <v>163</v>
-      </c>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C380">
-        <f t="shared" si="12"/>
-        <v>162</v>
-      </c>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C381">
-        <f t="shared" si="12"/>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C382">
-        <f t="shared" si="12"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C383">
-        <f t="shared" si="12"/>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C384">
-        <f t="shared" si="12"/>
-        <v>158</v>
-      </c>
-    </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C385">
-        <f t="shared" si="12"/>
-        <v>157</v>
-      </c>
-    </row>
-    <row r="386" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C386">
-        <f t="shared" si="12"/>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C387">
-        <f t="shared" si="12"/>
-        <v>155</v>
-      </c>
-    </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C388">
-        <f t="shared" si="12"/>
-        <v>154</v>
-      </c>
-    </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C389">
-        <f t="shared" si="12"/>
-        <v>153</v>
-      </c>
-    </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C390">
-        <f t="shared" si="12"/>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C391">
-        <f t="shared" si="12"/>
-        <v>151</v>
-      </c>
-    </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C392">
-        <f t="shared" si="12"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C393">
-        <f t="shared" si="12"/>
-        <v>149</v>
-      </c>
-    </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C394">
-        <f t="shared" si="12"/>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="395" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C395">
-        <f t="shared" si="12"/>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C396">
-        <f t="shared" si="12"/>
-        <v>146</v>
-      </c>
-    </row>
-    <row r="397" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C397">
-        <f t="shared" si="12"/>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="398" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C398">
-        <f t="shared" si="12"/>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C399">
-        <f t="shared" si="12"/>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C400">
-        <f t="shared" si="12"/>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C401">
-        <f t="shared" si="12"/>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="402" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C402">
-        <f t="shared" si="12"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="403" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C403">
-        <f t="shared" si="12"/>
-        <v>139</v>
-      </c>
-    </row>
-    <row r="404" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C404">
-        <f t="shared" si="12"/>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="405" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C405">
-        <f t="shared" si="12"/>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="406" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C406">
-        <f t="shared" si="12"/>
-        <v>136</v>
-      </c>
-    </row>
-    <row r="407" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C407">
-        <f t="shared" si="12"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="408" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C408">
-        <f t="shared" si="12"/>
-        <v>134</v>
-      </c>
-    </row>
-    <row r="409" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C409">
-        <f t="shared" si="12"/>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="410" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C410">
-        <f t="shared" si="12"/>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="411" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C411">
-        <f t="shared" si="12"/>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="412" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C412">
-        <f t="shared" si="12"/>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="413" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C413">
-        <f t="shared" si="12"/>
-        <v>129</v>
-      </c>
-    </row>
-    <row r="414" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C414">
-        <f t="shared" si="12"/>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="415" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C415">
-        <f t="shared" si="12"/>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="416" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C416">
-        <f t="shared" si="12"/>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="417" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C417">
-        <f t="shared" si="12"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="418" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C418">
-        <f t="shared" si="12"/>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="419" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C419">
-        <f t="shared" si="12"/>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="420" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C420">
-        <f t="shared" si="12"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="421" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C421">
-        <f t="shared" si="12"/>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="422" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C422">
-        <f t="shared" si="12"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="423" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C423">
-        <f t="shared" si="12"/>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="424" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C424">
-        <f t="shared" si="12"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="425" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C425">
-        <f t="shared" si="12"/>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="426" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C426">
-        <f t="shared" si="12"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="427" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C427">
-        <f t="shared" si="12"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="428" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C428">
-        <f t="shared" si="12"/>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="429" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C429">
-        <f t="shared" si="12"/>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="430" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C430">
-        <f t="shared" si="12"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="431" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C431">
-        <f t="shared" si="12"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="432" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C432">
-        <f t="shared" si="12"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="433" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C433">
-        <f t="shared" si="12"/>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="434" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C434">
-        <f t="shared" si="12"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="435" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C435">
-        <f t="shared" si="12"/>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="436" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C436">
-        <f t="shared" si="12"/>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="437" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C437">
-        <f t="shared" si="12"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="438" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C438">
-        <f t="shared" si="12"/>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="439" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C439">
-        <f t="shared" si="12"/>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="440" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C440">
-        <f t="shared" si="12"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="441" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C441">
-        <f t="shared" si="12"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="442" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C442">
-        <f t="shared" si="12"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="443" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C443">
-        <f t="shared" ref="C443:C506" si="13">C442-1</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="444" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C444">
-        <f t="shared" si="13"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="445" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C445">
-        <f t="shared" si="13"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="446" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C446">
-        <f t="shared" si="13"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="447" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C447">
-        <f t="shared" si="13"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="448" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C448">
-        <f t="shared" si="13"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="449" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C449">
-        <f t="shared" si="13"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="450" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C450">
-        <f t="shared" si="13"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="451" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C451">
-        <f t="shared" si="13"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="452" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C452">
-        <f t="shared" si="13"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="453" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C453">
-        <f t="shared" si="13"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="454" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C454">
-        <f t="shared" si="13"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="455" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C455">
-        <f t="shared" si="13"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="456" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C456">
-        <f t="shared" si="13"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="457" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C457">
-        <f t="shared" si="13"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="458" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C458">
-        <f t="shared" si="13"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="459" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C459">
-        <f t="shared" si="13"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="460" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C460">
-        <f t="shared" si="13"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="461" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C461">
-        <f t="shared" si="13"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="462" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C462">
-        <f t="shared" si="13"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="463" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C463">
-        <f t="shared" si="13"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="464" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C464">
-        <f t="shared" si="13"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="465" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C465">
-        <f t="shared" si="13"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="466" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C466">
-        <f t="shared" si="13"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="467" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C467">
-        <f t="shared" si="13"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="468" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C468">
-        <f t="shared" si="13"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="469" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C469">
-        <f t="shared" si="13"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="470" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C470">
-        <f t="shared" si="13"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="471" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C471">
-        <f t="shared" si="13"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="472" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C472">
-        <f t="shared" si="13"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="473" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C473">
-        <f t="shared" si="13"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="474" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C474">
-        <f t="shared" si="13"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="475" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C475">
-        <f t="shared" si="13"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="476" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C476">
-        <f t="shared" si="13"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="477" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C477">
-        <f t="shared" si="13"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="478" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C478">
-        <f t="shared" si="13"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="479" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C479">
-        <f t="shared" si="13"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="480" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C480">
-        <f t="shared" si="13"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="481" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C481">
-        <f t="shared" si="13"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="482" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C482">
-        <f t="shared" si="13"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="483" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C483">
-        <f t="shared" si="13"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="484" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C484">
-        <f t="shared" si="13"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="485" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C485">
-        <f t="shared" si="13"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="486" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C486">
-        <f t="shared" si="13"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="487" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C487">
-        <f t="shared" si="13"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="488" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C488">
-        <f t="shared" si="13"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="489" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C489">
-        <f t="shared" si="13"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="490" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C490">
-        <f t="shared" si="13"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="491" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C491">
-        <f t="shared" si="13"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="492" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C492">
-        <f t="shared" si="13"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="493" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C493">
-        <f t="shared" si="13"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="494" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C494">
-        <f t="shared" si="13"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="495" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C495">
-        <f t="shared" si="13"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="496" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C496">
-        <f t="shared" si="13"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="497" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C497">
-        <f t="shared" si="13"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="498" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C498">
-        <f t="shared" si="13"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="499" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C499">
-        <f t="shared" si="13"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="500" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C500">
-        <f t="shared" si="13"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="501" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C501">
-        <f t="shared" si="13"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="502" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C502">
-        <f t="shared" si="13"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="503" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C503">
-        <f t="shared" si="13"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="504" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C504">
-        <f t="shared" si="13"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="505" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C505">
-        <f t="shared" si="13"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="506" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C506">
-        <f t="shared" si="13"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="507" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C507">
-        <f t="shared" ref="C507:C541" si="14">C506-1</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="508" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C508">
-        <f t="shared" si="14"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="509" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C509">
-        <f t="shared" si="14"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="510" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C510">
-        <f t="shared" si="14"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="511" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C511">
-        <f t="shared" si="14"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="512" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C512">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="513" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C513">
-        <f t="shared" si="14"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="514" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C514">
-        <f t="shared" si="14"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="515" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C515">
-        <f t="shared" si="14"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="516" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C516">
-        <f t="shared" si="14"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="517" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C517">
-        <f t="shared" si="14"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="518" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C518">
-        <f t="shared" si="14"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="519" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C519">
-        <f t="shared" si="14"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="520" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C520">
-        <f t="shared" si="14"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="521" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C521">
-        <f t="shared" si="14"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="522" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C522">
-        <f t="shared" si="14"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="523" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C523">
-        <f t="shared" si="14"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="524" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C524">
-        <f t="shared" si="14"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="525" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C525">
-        <f t="shared" si="14"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="526" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C526">
-        <f t="shared" si="14"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="527" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C527">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="528" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C528">
-        <f t="shared" si="14"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="529" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C529">
-        <f t="shared" si="14"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="530" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C530">
-        <f t="shared" si="14"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="531" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C531">
-        <f t="shared" si="14"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="532" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C532">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="533" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C533">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="534" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C534">
-        <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="535" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C535">
-        <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="536" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C536">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="537" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C537">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="538" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C538">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="539" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C539">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="540" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C540">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="541" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C541">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="542" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C542">
-        <f>SUM(C377:C541)</f>
-        <v>13695</v>
       </c>
     </row>
   </sheetData>
